--- a/data/pca/factorExposure/factorExposure_2019-04-05.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-04-05.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,15 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +732,115 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.1309654031357303</v>
+        <v>0.07881491195401182</v>
       </c>
       <c r="C2">
-        <v>0.00364614922970138</v>
+        <v>-0.03834157948904648</v>
       </c>
       <c r="D2">
-        <v>0.04174641015323996</v>
+        <v>-0.01331842291345961</v>
       </c>
       <c r="E2">
-        <v>-0.1062956142978639</v>
+        <v>-0.03755854086073076</v>
       </c>
       <c r="F2">
-        <v>0.1077122109637436</v>
+        <v>0.1411629476822574</v>
       </c>
       <c r="G2">
-        <v>-0.02253601332785597</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.1105275819355223</v>
+      </c>
+      <c r="H2">
+        <v>0.05301880531426671</v>
+      </c>
+      <c r="I2">
+        <v>-0.02537180422029988</v>
+      </c>
+      <c r="J2">
+        <v>-0.0750979702776242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>0.2276089155771727</v>
+        <v>0.1696713592610846</v>
       </c>
       <c r="C3">
-        <v>-0.1093480640186661</v>
+        <v>-0.09675922485027258</v>
       </c>
       <c r="D3">
-        <v>-0.0504951250659805</v>
+        <v>0.03180478218453591</v>
       </c>
       <c r="E3">
-        <v>-0.321691496823718</v>
+        <v>0.02647069545022255</v>
       </c>
       <c r="F3">
-        <v>0.02756369089653521</v>
+        <v>0.3705449623878053</v>
       </c>
       <c r="G3">
-        <v>-0.1190917349818803</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.09486635799774842</v>
+      </c>
+      <c r="H3">
+        <v>0.2786847036448404</v>
+      </c>
+      <c r="I3">
+        <v>-0.1968447872829612</v>
+      </c>
+      <c r="J3">
+        <v>-0.2753685399658162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.09940890120805729</v>
+        <v>0.07492604663696537</v>
       </c>
       <c r="C4">
-        <v>-0.03480297006247089</v>
+        <v>-0.03971157767401202</v>
       </c>
       <c r="D4">
-        <v>0.02288099653457066</v>
+        <v>0.02687498687744287</v>
       </c>
       <c r="E4">
-        <v>-0.07401610972501856</v>
+        <v>-0.03277943689614888</v>
       </c>
       <c r="F4">
-        <v>0.03837042053760546</v>
+        <v>0.08309978050963887</v>
       </c>
       <c r="G4">
-        <v>-0.0391922536777423</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.0456884960491992</v>
+      </c>
+      <c r="H4">
+        <v>0.02427789085174137</v>
+      </c>
+      <c r="I4">
+        <v>-0.03389499146183027</v>
+      </c>
+      <c r="J4">
+        <v>-0.06110588723313037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +860,307 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.01727217669393203</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-0.008163660261203715</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.008924734304562093</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>-0.003928933023933269</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>0.001752934182265807</v>
       </c>
       <c r="G6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>0.02160138027488099</v>
+      </c>
+      <c r="H6">
+        <v>0.003373470370569311</v>
+      </c>
+      <c r="I6">
+        <v>0.01089957816255548</v>
+      </c>
+      <c r="J6">
+        <v>-0.0007191525317007354</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.04289872728645411</v>
+        <v>0.03532966870386902</v>
       </c>
       <c r="C7">
-        <v>-0.008331166438194999</v>
+        <v>-0.00980439069751494</v>
       </c>
       <c r="D7">
-        <v>0.03046993661420113</v>
+        <v>0.04038585652266256</v>
       </c>
       <c r="E7">
-        <v>-0.07528234807370129</v>
+        <v>-0.02611396137382558</v>
       </c>
       <c r="F7">
-        <v>-0.04830604122485018</v>
+        <v>0.05578796217945982</v>
       </c>
       <c r="G7">
-        <v>0.0005827347618055667</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>0.005302895661393916</v>
+      </c>
+      <c r="H7">
+        <v>0.04585124472366985</v>
+      </c>
+      <c r="I7">
+        <v>0.007092836261387917</v>
+      </c>
+      <c r="J7">
+        <v>-0.04989058190969286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04352950699255541</v>
+        <v>0.03029515962134534</v>
       </c>
       <c r="C8">
-        <v>-0.0441224755337834</v>
+        <v>-0.04277807306199598</v>
       </c>
       <c r="D8">
-        <v>0.001213301612151909</v>
+        <v>0.02691375167339578</v>
       </c>
       <c r="E8">
-        <v>-0.06833016691106339</v>
+        <v>-0.01230849582476696</v>
       </c>
       <c r="F8">
-        <v>0.007393247484767341</v>
+        <v>0.07293827555562112</v>
       </c>
       <c r="G8">
-        <v>-0.02147939235918379</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.0209794770557434</v>
+      </c>
+      <c r="H8">
+        <v>0.0493455667667675</v>
+      </c>
+      <c r="I8">
+        <v>-0.03321532679438331</v>
+      </c>
+      <c r="J8">
+        <v>-0.06464295428871837</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.08757848723351246</v>
+        <v>0.06178851944578652</v>
       </c>
       <c r="C9">
-        <v>-0.03502301891747758</v>
+        <v>-0.03495758254611988</v>
       </c>
       <c r="D9">
-        <v>0.03091971360028795</v>
+        <v>0.0303012304382889</v>
       </c>
       <c r="E9">
-        <v>-0.06022489146551741</v>
+        <v>-0.02920884630590634</v>
       </c>
       <c r="F9">
-        <v>0.02653862629807247</v>
+        <v>0.08294491090506151</v>
       </c>
       <c r="G9">
-        <v>-0.05717295762311349</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04352602412027974</v>
+      </c>
+      <c r="H9">
+        <v>0.0207202113044661</v>
+      </c>
+      <c r="I9">
+        <v>-0.01463319758012352</v>
+      </c>
+      <c r="J9">
+        <v>-0.03942200262958379</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>-0.001397903030435645</v>
+        <v>0.02113559352572973</v>
       </c>
       <c r="C10">
-        <v>0.1596763472389609</v>
+        <v>0.1457016940882576</v>
       </c>
       <c r="D10">
-        <v>-0.01619122899884689</v>
+        <v>-0.05538898824693095</v>
       </c>
       <c r="E10">
-        <v>-0.06592163888445937</v>
+        <v>0.01851732722732366</v>
       </c>
       <c r="F10">
-        <v>0.01745693849157601</v>
+        <v>0.07160834120998708</v>
       </c>
       <c r="G10">
-        <v>0.02076103612654019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.0239082097214074</v>
+      </c>
+      <c r="H10">
+        <v>-0.0003417092874951814</v>
+      </c>
+      <c r="I10">
+        <v>-0.1107806156693705</v>
+      </c>
+      <c r="J10">
+        <v>-0.001203365227390996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.05793940948306633</v>
+        <v>0.0494526174090158</v>
       </c>
       <c r="C11">
-        <v>-0.007286649053450636</v>
+        <v>-0.02719130506894764</v>
       </c>
       <c r="D11">
-        <v>-0.008868499520343661</v>
+        <v>0.0005441425239826126</v>
       </c>
       <c r="E11">
-        <v>-0.03831538648617796</v>
+        <v>-0.005048558749137935</v>
       </c>
       <c r="F11">
-        <v>0.007746879395798532</v>
+        <v>0.03991660438727467</v>
       </c>
       <c r="G11">
-        <v>0.02078825680156704</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.009193411690311319</v>
+      </c>
+      <c r="H11">
+        <v>0.001688087622708215</v>
+      </c>
+      <c r="I11">
+        <v>0.0175629719309121</v>
+      </c>
+      <c r="J11">
+        <v>-0.04063548284057079</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.04492610061605063</v>
+        <v>0.04700991405772724</v>
       </c>
       <c r="C12">
-        <v>-0.01422791833734007</v>
+        <v>-0.02230366896110197</v>
       </c>
       <c r="D12">
-        <v>-0.005025620552077484</v>
+        <v>0.01043046500713538</v>
       </c>
       <c r="E12">
-        <v>-0.02776952666842015</v>
+        <v>-0.008073864470903804</v>
       </c>
       <c r="F12">
-        <v>-0.00104615734878048</v>
+        <v>0.0173048835754217</v>
       </c>
       <c r="G12">
-        <v>-0.001138159740268847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.0001443274911085071</v>
+      </c>
+      <c r="H12">
+        <v>0.002370907617693018</v>
+      </c>
+      <c r="I12">
+        <v>0.01505494357360612</v>
+      </c>
+      <c r="J12">
+        <v>-0.0254172253702598</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06439945034624936</v>
+        <v>0.04273535068938824</v>
       </c>
       <c r="C13">
-        <v>-0.01935340303807718</v>
+        <v>-0.02973521014223601</v>
       </c>
       <c r="D13">
-        <v>-0.01307186903213681</v>
+        <v>-0.006961638398223551</v>
       </c>
       <c r="E13">
-        <v>-0.1058785679508486</v>
+        <v>-0.005072689136776765</v>
       </c>
       <c r="F13">
-        <v>0.01867565660259591</v>
+        <v>0.1051204499419862</v>
       </c>
       <c r="G13">
-        <v>0.0005440585943098419</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.02372771094246825</v>
+      </c>
+      <c r="H13">
+        <v>0.04770208354076479</v>
+      </c>
+      <c r="I13">
+        <v>-0.005267387037542692</v>
+      </c>
+      <c r="J13">
+        <v>-0.05925166615962604</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.03647661576280591</v>
+        <v>0.0280166365887949</v>
       </c>
       <c r="C14">
-        <v>-0.009465381724579213</v>
+        <v>-0.0154269462759299</v>
       </c>
       <c r="D14">
-        <v>0.02051358850321346</v>
+        <v>0.01020192859546919</v>
       </c>
       <c r="E14">
-        <v>-0.0215187113386388</v>
+        <v>-0.02339153795956217</v>
       </c>
       <c r="F14">
-        <v>0.007163835805782123</v>
+        <v>0.03999681952960119</v>
       </c>
       <c r="G14">
-        <v>0.02401689838437974</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03166569750645786</v>
+      </c>
+      <c r="H14">
+        <v>0.05101301679643725</v>
+      </c>
+      <c r="I14">
+        <v>-0.008821131449260345</v>
+      </c>
+      <c r="J14">
+        <v>-0.01624972733245984</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1180,51 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.04772672191254013</v>
+        <v>0.04458106849594283</v>
       </c>
       <c r="C16">
-        <v>-0.02311821357993137</v>
+        <v>-0.0330104222109705</v>
       </c>
       <c r="D16">
-        <v>-0.01361724300512881</v>
+        <v>0.008543893991635241</v>
       </c>
       <c r="E16">
-        <v>-0.03256017100438769</v>
+        <v>-0.001424940122510886</v>
       </c>
       <c r="F16">
-        <v>-0.004590176092855841</v>
+        <v>0.0336006683093337</v>
       </c>
       <c r="G16">
-        <v>0.005653650739957428</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>0.003442857298648063</v>
+      </c>
+      <c r="H16">
+        <v>0.008198175270775212</v>
+      </c>
+      <c r="I16">
+        <v>0.01488549069359425</v>
+      </c>
+      <c r="J16">
+        <v>-0.03449389002835448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1244,19 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1276,115 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B19">
-        <v>0.05307930892502673</v>
+        <v>0.04783293586449177</v>
       </c>
       <c r="C19">
-        <v>-0.0305288987462802</v>
+        <v>-0.04275270950505851</v>
       </c>
       <c r="D19">
-        <v>-0.006613646743076748</v>
+        <v>0.01190551142202089</v>
       </c>
       <c r="E19">
-        <v>-0.07031892132149001</v>
+        <v>-0.013185301095047</v>
       </c>
       <c r="F19">
-        <v>-0.01652237757643902</v>
+        <v>0.08179003988747198</v>
       </c>
       <c r="G19">
-        <v>0.02475500410508224</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.01174823839225071</v>
+      </c>
+      <c r="H19">
+        <v>0.08389429562955611</v>
+      </c>
+      <c r="I19">
+        <v>-0.03301532579662608</v>
+      </c>
+      <c r="J19">
+        <v>-0.04833705062877885</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.03913565451596198</v>
+        <v>0.01902700799475978</v>
       </c>
       <c r="C20">
-        <v>-0.03757895692500745</v>
+        <v>-0.02939975257040003</v>
       </c>
       <c r="D20">
-        <v>0.01273611791735829</v>
+        <v>0.01670823557145389</v>
       </c>
       <c r="E20">
-        <v>-0.06215173927379271</v>
+        <v>-0.01588393479399235</v>
       </c>
       <c r="F20">
-        <v>-0.01339918282110379</v>
+        <v>0.0667525537240027</v>
       </c>
       <c r="G20">
-        <v>0.005045482777148075</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.01570059656020214</v>
+      </c>
+      <c r="H20">
+        <v>0.07220050585880711</v>
+      </c>
+      <c r="I20">
+        <v>-0.01581065443828128</v>
+      </c>
+      <c r="J20">
+        <v>-0.07843212505823081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.04144436938913819</v>
+        <v>0.02407918250250662</v>
       </c>
       <c r="C21">
-        <v>-0.02139921601616965</v>
+        <v>-0.02537908498332244</v>
       </c>
       <c r="D21">
-        <v>0.002272704813146041</v>
+        <v>0.02430016127621122</v>
       </c>
       <c r="E21">
-        <v>-0.09045921100668181</v>
+        <v>-0.003350555653566524</v>
       </c>
       <c r="F21">
-        <v>0.0492190194793471</v>
+        <v>0.07734281757524333</v>
       </c>
       <c r="G21">
-        <v>0.009609941886207911</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.03547331201694428</v>
+      </c>
+      <c r="H21">
+        <v>0.02523057750557953</v>
+      </c>
+      <c r="I21">
+        <v>0.01030554131664082</v>
+      </c>
+      <c r="J21">
+        <v>-0.02985750445373085</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1404,19 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1436,371 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.04946775471445164</v>
+        <v>0.0434385789674077</v>
       </c>
       <c r="C24">
-        <v>-0.01568669603412473</v>
+        <v>-0.0222415288766</v>
       </c>
       <c r="D24">
-        <v>-0.002631208456087091</v>
+        <v>0.005286646875057782</v>
       </c>
       <c r="E24">
-        <v>-0.04224346086909371</v>
+        <v>-0.00663014515989745</v>
       </c>
       <c r="F24">
-        <v>-0.002247036978593686</v>
+        <v>0.04015316722581357</v>
       </c>
       <c r="G24">
-        <v>-0.0008794285193963411</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>0.002981383869996191</v>
+      </c>
+      <c r="H24">
+        <v>0.007221479899414684</v>
+      </c>
+      <c r="I24">
+        <v>0.01367926385048419</v>
+      </c>
+      <c r="J24">
+        <v>-0.04040340654181745</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.05006901193842542</v>
+        <v>0.04595804653211665</v>
       </c>
       <c r="C25">
-        <v>-0.006309712108395582</v>
+        <v>-0.02232971215424485</v>
       </c>
       <c r="D25">
-        <v>-0.005613855030998348</v>
+        <v>0.004196749540347875</v>
       </c>
       <c r="E25">
-        <v>-0.0406598460317905</v>
+        <v>-0.004808248483333361</v>
       </c>
       <c r="F25">
-        <v>0.007936141944548869</v>
+        <v>0.04400377848795566</v>
       </c>
       <c r="G25">
-        <v>0.009345024979535432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.004186505077084725</v>
+      </c>
+      <c r="H25">
+        <v>0.00112508655078528</v>
+      </c>
+      <c r="I25">
+        <v>0.01478321198817665</v>
+      </c>
+      <c r="J25">
+        <v>-0.03278402389348797</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.01341541609144495</v>
+        <v>0.0159562854986008</v>
       </c>
       <c r="C26">
-        <v>-0.02634465291384594</v>
+        <v>-0.02519606078026554</v>
       </c>
       <c r="D26">
-        <v>0.00073700908940036</v>
+        <v>0.003691187563270498</v>
       </c>
       <c r="E26">
-        <v>-0.03545844566691948</v>
+        <v>0.001874459575219573</v>
       </c>
       <c r="F26">
-        <v>0.01907333253883852</v>
+        <v>0.0449026223638644</v>
       </c>
       <c r="G26">
-        <v>0.01911360414010915</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.02068491743539323</v>
+      </c>
+      <c r="H26">
+        <v>0.03082648283289183</v>
+      </c>
+      <c r="I26">
+        <v>0.008213153775132489</v>
+      </c>
+      <c r="J26">
+        <v>-0.03597821560754146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B27">
-        <v>0.1155137019392241</v>
+        <v>0.08063055916877139</v>
       </c>
       <c r="C27">
-        <v>-0.02398596494860973</v>
+        <v>-0.03046048008565553</v>
       </c>
       <c r="D27">
-        <v>0.01948389322307619</v>
+        <v>0.01240274676763228</v>
       </c>
       <c r="E27">
-        <v>-0.09684365144858202</v>
+        <v>-0.03026638319191444</v>
       </c>
       <c r="F27">
-        <v>0.01157071499486512</v>
+        <v>0.07093269268516428</v>
       </c>
       <c r="G27">
-        <v>-0.009931898928066975</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.01681693750687051</v>
+      </c>
+      <c r="H27">
+        <v>0.008202996333715297</v>
+      </c>
+      <c r="I27">
+        <v>-0.014328482874665</v>
+      </c>
+      <c r="J27">
+        <v>-0.0437841665028973</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.001829826471700912</v>
+        <v>0.03891449997892206</v>
       </c>
       <c r="C28">
-        <v>0.2452321805744383</v>
+        <v>0.2247885063097079</v>
       </c>
       <c r="D28">
-        <v>-0.01970851839935363</v>
+        <v>-0.07538065121262652</v>
       </c>
       <c r="E28">
-        <v>-0.0396099182129276</v>
+        <v>0.03017850880623818</v>
       </c>
       <c r="F28">
-        <v>0.02048884726780681</v>
+        <v>0.0575492258560996</v>
       </c>
       <c r="G28">
-        <v>0.002291568045036798</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02690874034486978</v>
+      </c>
+      <c r="H28">
+        <v>-0.008235114103802958</v>
+      </c>
+      <c r="I28">
+        <v>-0.1554461249392271</v>
+      </c>
+      <c r="J28">
+        <v>-0.01553303124452521</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.02402107341812785</v>
+        <v>0.02187582087649394</v>
       </c>
       <c r="C29">
-        <v>-0.0170144568947744</v>
+        <v>-0.01716175428991415</v>
       </c>
       <c r="D29">
-        <v>0.02599280836425642</v>
+        <v>0.01577505893417934</v>
       </c>
       <c r="E29">
-        <v>-0.02307151611538751</v>
+        <v>-0.02446040980840397</v>
       </c>
       <c r="F29">
-        <v>0.01445716406889165</v>
+        <v>0.03687917846197034</v>
       </c>
       <c r="G29">
-        <v>0.01769110456425806</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03334117009580625</v>
+      </c>
+      <c r="H29">
+        <v>0.04742939983886542</v>
+      </c>
+      <c r="I29">
+        <v>0.0007336119863713315</v>
+      </c>
+      <c r="J29">
+        <v>-0.008070678480498208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1048199466717358</v>
+        <v>0.09323889641231151</v>
       </c>
       <c r="C30">
-        <v>-0.01466011714058446</v>
+        <v>-0.05583224177296206</v>
       </c>
       <c r="D30">
-        <v>0.01770369657006551</v>
+        <v>-0.02359553204532841</v>
       </c>
       <c r="E30">
-        <v>-0.1152288135225146</v>
+        <v>-0.0281386468734819</v>
       </c>
       <c r="F30">
-        <v>0.01241378851263142</v>
+        <v>0.1040045753427159</v>
       </c>
       <c r="G30">
-        <v>0.03982908827527454</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>0.01374902015791364</v>
+      </c>
+      <c r="H30">
+        <v>0.01787202662890361</v>
+      </c>
+      <c r="I30">
+        <v>0.01632483820769642</v>
+      </c>
+      <c r="J30">
+        <v>-0.03345717394970323</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.06029417566126376</v>
+        <v>0.06299855675362903</v>
       </c>
       <c r="C31">
-        <v>-0.01457481035100691</v>
+        <v>-0.02421458782850851</v>
       </c>
       <c r="D31">
-        <v>0.0192416113786626</v>
+        <v>-0.004858817666968013</v>
       </c>
       <c r="E31">
-        <v>0.01944264086034125</v>
+        <v>-0.02027837371619201</v>
       </c>
       <c r="F31">
-        <v>0.01051714686071223</v>
+        <v>0.002084095194590292</v>
       </c>
       <c r="G31">
-        <v>0.04922075793219062</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.04305760254619248</v>
+      </c>
+      <c r="H31">
+        <v>0.03037823204847293</v>
+      </c>
+      <c r="I31">
+        <v>-0.007661835655538148</v>
+      </c>
+      <c r="J31">
+        <v>-0.0136271884661746</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.06991627400453877</v>
+        <v>0.04616695495572036</v>
       </c>
       <c r="C32">
-        <v>-0.03039644798247827</v>
+        <v>-0.04528553841541562</v>
       </c>
       <c r="D32">
-        <v>0.006967348349187483</v>
+        <v>0.02982856958636779</v>
       </c>
       <c r="E32">
-        <v>-0.1106245507315072</v>
+        <v>-0.02440193111230662</v>
       </c>
       <c r="F32">
-        <v>-0.003902210808098014</v>
+        <v>0.0887028792274662</v>
       </c>
       <c r="G32">
-        <v>0.02169210140183446</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.01330696493650289</v>
+      </c>
+      <c r="H32">
+        <v>0.03707509738306728</v>
+      </c>
+      <c r="I32">
+        <v>-0.01683517854894663</v>
+      </c>
+      <c r="J32">
+        <v>-0.04626013800973243</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.07014438368303103</v>
+        <v>0.05838460838156566</v>
       </c>
       <c r="C33">
-        <v>-0.03700253315184745</v>
+        <v>-0.05447015211304022</v>
       </c>
       <c r="D33">
-        <v>0.005286452505926733</v>
+        <v>-0.00301820821607036</v>
       </c>
       <c r="E33">
-        <v>-0.07011030635627376</v>
+        <v>-0.004752311653924183</v>
       </c>
       <c r="F33">
-        <v>0.0482671242093751</v>
+        <v>0.07799151867179774</v>
       </c>
       <c r="G33">
-        <v>0.01258977750176172</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.03726615748428951</v>
+      </c>
+      <c r="H33">
+        <v>0.03620840607904739</v>
+      </c>
+      <c r="I33">
+        <v>0.01762152131927732</v>
+      </c>
+      <c r="J33">
+        <v>-0.04694151360624902</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.04894481682673085</v>
+        <v>0.04631380685785935</v>
       </c>
       <c r="C34">
-        <v>-0.01522390388017122</v>
+        <v>-0.0284089115349547</v>
       </c>
       <c r="D34">
-        <v>-0.002944522015101774</v>
+        <v>0.01188941077881745</v>
       </c>
       <c r="E34">
-        <v>-0.02302097120372329</v>
+        <v>-0.01266604045295121</v>
       </c>
       <c r="F34">
-        <v>-0.004223969780895688</v>
+        <v>0.03073997223127551</v>
       </c>
       <c r="G34">
-        <v>0.008878750717671229</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.003504089708072425</v>
+      </c>
+      <c r="H34">
+        <v>0.01094187852765446</v>
+      </c>
+      <c r="I34">
+        <v>0.01436637569631249</v>
+      </c>
+      <c r="J34">
+        <v>-0.03021425861921118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1820,51 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.01307359112713623</v>
+        <v>0.01594900676818428</v>
       </c>
       <c r="C36">
-        <v>0.007797210426499029</v>
+        <v>-0.0008903624812057848</v>
       </c>
       <c r="D36">
-        <v>0.006599666694916808</v>
+        <v>0.00488788947651237</v>
       </c>
       <c r="E36">
-        <v>-0.02148693012372079</v>
+        <v>-0.008336032254689509</v>
       </c>
       <c r="F36">
-        <v>0.007492989492522592</v>
+        <v>0.02780290272873207</v>
       </c>
       <c r="G36">
-        <v>0.01507356556944059</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02430574843651072</v>
+      </c>
+      <c r="H36">
+        <v>0.0279433476331701</v>
+      </c>
+      <c r="I36">
+        <v>0.004514781189782253</v>
+      </c>
+      <c r="J36">
+        <v>-0.001701753979283786</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1884,243 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05615246239458655</v>
+        <v>0.03492072062648499</v>
       </c>
       <c r="C38">
-        <v>-0.01016213541029527</v>
+        <v>-0.01318180444034512</v>
       </c>
       <c r="D38">
-        <v>0.02298745976521945</v>
+        <v>0.007101831493982699</v>
       </c>
       <c r="E38">
-        <v>-0.03520926708154954</v>
+        <v>-0.01016488959515998</v>
       </c>
       <c r="F38">
-        <v>0.001111928439263027</v>
+        <v>0.05030159570698645</v>
       </c>
       <c r="G38">
-        <v>-0.02822114558602065</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.02701935154967808</v>
+      </c>
+      <c r="H38">
+        <v>0.0142351660050445</v>
+      </c>
+      <c r="I38">
+        <v>0.01086815327311944</v>
+      </c>
+      <c r="J38">
+        <v>-0.001072711214526402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.07554048723580112</v>
+        <v>0.05833082128898011</v>
       </c>
       <c r="C39">
-        <v>-0.01312467007944296</v>
+        <v>-0.041017326394725</v>
       </c>
       <c r="D39">
-        <v>0.0007434831655562395</v>
+        <v>0.0064261475246843</v>
       </c>
       <c r="E39">
-        <v>-0.03990794133678325</v>
+        <v>-0.01332166421788263</v>
       </c>
       <c r="F39">
-        <v>0.02055384190520949</v>
+        <v>0.05631755154352485</v>
       </c>
       <c r="G39">
-        <v>0.008883158403645997</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.01779206417685646</v>
+      </c>
+      <c r="H39">
+        <v>0.0008772626797177074</v>
+      </c>
+      <c r="I39">
+        <v>0.03746345216474289</v>
+      </c>
+      <c r="J39">
+        <v>-0.04218985588741999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.07786863085015695</v>
+        <v>0.05798421553887884</v>
       </c>
       <c r="C40">
-        <v>-0.03362366653166587</v>
+        <v>-0.04791598418334429</v>
       </c>
       <c r="D40">
-        <v>0.002874461094321614</v>
+        <v>-0.007410362343436236</v>
       </c>
       <c r="E40">
-        <v>-0.09943975968510085</v>
+        <v>-0.01908283960155454</v>
       </c>
       <c r="F40">
-        <v>0.03200298277494425</v>
+        <v>0.09597371212857284</v>
       </c>
       <c r="G40">
-        <v>-0.03930028270778486</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02547885560155944</v>
+      </c>
+      <c r="H40">
+        <v>0.0522662729396178</v>
+      </c>
+      <c r="I40">
+        <v>-0.001908431873638766</v>
+      </c>
+      <c r="J40">
+        <v>-0.1166264142134078</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.00442116519942126</v>
+        <v>0.00285166174200545</v>
       </c>
       <c r="C41">
-        <v>-0.01240627946966095</v>
+        <v>-0.01029741668846413</v>
       </c>
       <c r="D41">
-        <v>0.02153764979358376</v>
+        <v>0.004127062726539045</v>
       </c>
       <c r="E41">
-        <v>-0.0112417046032978</v>
+        <v>-0.006693635346069265</v>
       </c>
       <c r="F41">
-        <v>0.02976848327684585</v>
+        <v>0.01464968892284306</v>
       </c>
       <c r="G41">
-        <v>0.02255797913021786</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.03917058199148384</v>
+      </c>
+      <c r="H41">
+        <v>0.03099736179696485</v>
+      </c>
+      <c r="I41">
+        <v>-0.01861574217581984</v>
+      </c>
+      <c r="J41">
+        <v>-0.01232111082319211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B42">
-        <v>0.1217083605573729</v>
+        <v>0.2141744483672431</v>
       </c>
       <c r="C42">
-        <v>-0.1870473378528478</v>
+        <v>-0.1644737406546427</v>
       </c>
       <c r="D42">
-        <v>-0.9317129240663555</v>
+        <v>-0.01638835406099143</v>
       </c>
       <c r="E42">
-        <v>0.09061391126386489</v>
+        <v>0.9326772303880956</v>
       </c>
       <c r="F42">
-        <v>-0.03433844194866293</v>
+        <v>-0.1619964385553928</v>
       </c>
       <c r="G42">
-        <v>0.07331700667262367</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.004850993366673043</v>
+      </c>
+      <c r="H42">
+        <v>-0.0007488385592619296</v>
+      </c>
+      <c r="I42">
+        <v>-0.04825876994222759</v>
+      </c>
+      <c r="J42">
+        <v>-0.02545245338493993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.008714521568989265</v>
+        <v>0.005190016496059153</v>
       </c>
       <c r="C43">
-        <v>-0.01712209179597602</v>
+        <v>-0.01460823390297963</v>
       </c>
       <c r="D43">
-        <v>0.0148347088112201</v>
+        <v>0.002755309489383178</v>
       </c>
       <c r="E43">
-        <v>-0.03385911401211603</v>
+        <v>-0.006758923938832859</v>
       </c>
       <c r="F43">
-        <v>0.006562374582216054</v>
+        <v>0.02747400455998374</v>
       </c>
       <c r="G43">
-        <v>0.01953207652047577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.02265475474805114</v>
+      </c>
+      <c r="H43">
+        <v>0.03140711006005342</v>
+      </c>
+      <c r="I43">
+        <v>-0.01200314281447907</v>
+      </c>
+      <c r="J43">
+        <v>-0.02170796830193405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.0399279036774484</v>
+        <v>0.02848499680912485</v>
       </c>
       <c r="C44">
-        <v>-0.04139318969857061</v>
+        <v>-0.04107642611454699</v>
       </c>
       <c r="D44">
-        <v>0.009023412447952812</v>
+        <v>0.01521969892995644</v>
       </c>
       <c r="E44">
-        <v>-0.1177187309118764</v>
+        <v>-0.004996863824149623</v>
       </c>
       <c r="F44">
-        <v>0.09428960636774564</v>
+        <v>0.1227343554161039</v>
       </c>
       <c r="G44">
-        <v>0.02686688317090229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.0629735010309334</v>
+      </c>
+      <c r="H44">
+        <v>0.09983235633284486</v>
+      </c>
+      <c r="I44">
+        <v>-0.02683550825254116</v>
+      </c>
+      <c r="J44">
+        <v>-0.0307218020025097</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +2140,115 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.02720488265296975</v>
+        <v>0.0248053811704118</v>
       </c>
       <c r="C46">
-        <v>-0.01551078459993422</v>
+        <v>-0.03419903329612931</v>
       </c>
       <c r="D46">
-        <v>0.02458670966184976</v>
+        <v>0.008868733335021212</v>
       </c>
       <c r="E46">
-        <v>-0.02184943216064608</v>
+        <v>-0.02466116954353187</v>
       </c>
       <c r="F46">
-        <v>0.02438502458464222</v>
+        <v>0.04639170729642209</v>
       </c>
       <c r="G46">
-        <v>0.02796905429065196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.02879678400206388</v>
+      </c>
+      <c r="H46">
+        <v>0.05207722252920461</v>
+      </c>
+      <c r="I46">
+        <v>0.00109731419988402</v>
+      </c>
+      <c r="J46">
+        <v>-0.02011253113485097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.08734010021459425</v>
+        <v>0.09213928988565308</v>
       </c>
       <c r="C47">
-        <v>-0.009786607670895946</v>
+        <v>-0.01917255728449159</v>
       </c>
       <c r="D47">
-        <v>0.01880968372239232</v>
+        <v>-0.001798819312273265</v>
       </c>
       <c r="E47">
-        <v>0.02422097746655499</v>
+        <v>-0.02417765394265419</v>
       </c>
       <c r="F47">
-        <v>0.007365138096422186</v>
+        <v>-0.01145658892332624</v>
       </c>
       <c r="G47">
-        <v>0.02879117889465067</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>-0.04600701913107692</v>
+      </c>
+      <c r="H47">
+        <v>0.05375309666069957</v>
+      </c>
+      <c r="I47">
+        <v>-0.01350076980952271</v>
+      </c>
+      <c r="J47">
+        <v>-0.02372767069534408</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.01747316397884613</v>
+        <v>0.01859348367680167</v>
       </c>
       <c r="C48">
-        <v>-0.02039288549707087</v>
+        <v>-0.01965933668383794</v>
       </c>
       <c r="D48">
-        <v>0.0153008642661305</v>
+        <v>0.008029598650886529</v>
       </c>
       <c r="E48">
-        <v>-0.02926599292426471</v>
+        <v>-0.01136110609221627</v>
       </c>
       <c r="F48">
-        <v>0.01064204035867507</v>
+        <v>0.03034937454668598</v>
       </c>
       <c r="G48">
-        <v>0.004587286296106359</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.01649292768061807</v>
+      </c>
+      <c r="H48">
+        <v>0.02280521690383431</v>
+      </c>
+      <c r="I48">
+        <v>-0.009737825810186821</v>
+      </c>
+      <c r="J48">
+        <v>-0.01299391940344149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +2268,83 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.08726080129936438</v>
+        <v>0.08840867860418401</v>
       </c>
       <c r="C50">
-        <v>-0.03367393420070199</v>
+        <v>-0.03242202775606114</v>
       </c>
       <c r="D50">
-        <v>0.023818412891921</v>
+        <v>0.01946213619939509</v>
       </c>
       <c r="E50">
-        <v>0.01756421931183463</v>
+        <v>-0.0211996915772486</v>
       </c>
       <c r="F50">
-        <v>-0.003011681004960898</v>
+        <v>-0.004655225808956323</v>
       </c>
       <c r="G50">
-        <v>0.03641075278396162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.005670778552853553</v>
+      </c>
+      <c r="H50">
+        <v>0.04073327828332939</v>
+      </c>
+      <c r="I50">
+        <v>0.01274529971590961</v>
+      </c>
+      <c r="J50">
+        <v>-0.002472154042214275</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.06842351914160931</v>
+        <v>0.04707964407463208</v>
       </c>
       <c r="C51">
-        <v>0.02020224489042895</v>
+        <v>-0.004220810330178538</v>
       </c>
       <c r="D51">
-        <v>-0.004952556437022793</v>
+        <v>-0.01337866528304881</v>
       </c>
       <c r="E51">
-        <v>-0.08085621039787289</v>
+        <v>-0.009950581013218503</v>
       </c>
       <c r="F51">
-        <v>0.05518160922877719</v>
+        <v>0.09539243251795872</v>
       </c>
       <c r="G51">
-        <v>0.06134529974023146</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.05699323056870147</v>
+      </c>
+      <c r="H51">
+        <v>0.04473549360087041</v>
+      </c>
+      <c r="I51">
+        <v>-0.02059482429724893</v>
+      </c>
+      <c r="J51">
+        <v>-0.04283784264572069</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2364,307 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1458805978059114</v>
+        <v>0.1278099045295193</v>
       </c>
       <c r="C53">
-        <v>-0.0109061107907268</v>
+        <v>-0.0362459184297042</v>
       </c>
       <c r="D53">
-        <v>0.0421827185273481</v>
+        <v>0.001730288961710276</v>
       </c>
       <c r="E53">
-        <v>0.04597163639312477</v>
+        <v>-0.04682951907485524</v>
       </c>
       <c r="F53">
-        <v>-0.01085010215906859</v>
+        <v>-0.04111436108307131</v>
       </c>
       <c r="G53">
-        <v>0.03443606571734872</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>-0.02531260363175815</v>
+      </c>
+      <c r="H53">
+        <v>-0.002371459552473378</v>
+      </c>
+      <c r="I53">
+        <v>-0.03241167467658491</v>
+      </c>
+      <c r="J53">
+        <v>-0.03416072655255641</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.02973120082328121</v>
+        <v>0.02600075876202821</v>
       </c>
       <c r="C54">
-        <v>0.002260288112970292</v>
+        <v>-0.00232809566562857</v>
       </c>
       <c r="D54">
-        <v>0.02931888579007551</v>
+        <v>0.005699193827847106</v>
       </c>
       <c r="E54">
-        <v>-0.02767799806022945</v>
+        <v>-0.02605128272106285</v>
       </c>
       <c r="F54">
-        <v>0.04707834047769902</v>
+        <v>0.03750892221166011</v>
       </c>
       <c r="G54">
-        <v>0.005119676318000434</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.05441120858759097</v>
+      </c>
+      <c r="H54">
+        <v>0.03975759971837629</v>
+      </c>
+      <c r="I54">
+        <v>-0.0300405948016202</v>
+      </c>
+      <c r="J54">
+        <v>0.0006120921439846492</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.09807685904055101</v>
+        <v>0.1010205149531316</v>
       </c>
       <c r="C55">
-        <v>0.003773606666184847</v>
+        <v>-0.01792634398055797</v>
       </c>
       <c r="D55">
-        <v>0.03393407468314664</v>
+        <v>0.01576784110333941</v>
       </c>
       <c r="E55">
-        <v>0.006884467568850311</v>
+        <v>-0.03067796313370883</v>
       </c>
       <c r="F55">
-        <v>-0.03679459236086866</v>
+        <v>-0.0286813536116848</v>
       </c>
       <c r="G55">
-        <v>-0.01989772706310708</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.005154014287362131</v>
+      </c>
+      <c r="H55">
+        <v>0.0139888339678438</v>
+      </c>
+      <c r="I55">
+        <v>-0.01358262023575315</v>
+      </c>
+      <c r="J55">
+        <v>-0.03249362264665935</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1797714485682354</v>
+        <v>0.170119141162806</v>
       </c>
       <c r="C56">
-        <v>0.01165048747873632</v>
+        <v>-0.01769800407800451</v>
       </c>
       <c r="D56">
-        <v>0.07846593360465423</v>
+        <v>0.003828182088293573</v>
       </c>
       <c r="E56">
-        <v>0.09032709745393362</v>
+        <v>-0.08432206377933246</v>
       </c>
       <c r="F56">
-        <v>-0.08607841794871975</v>
+        <v>-0.08698234619897383</v>
       </c>
       <c r="G56">
-        <v>0.0003303981063250746</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.02804059941491776</v>
+      </c>
+      <c r="H56">
+        <v>-0.04077719135989422</v>
+      </c>
+      <c r="I56">
+        <v>-0.0253266049857507</v>
+      </c>
+      <c r="J56">
+        <v>-0.04553780632809497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B57">
-        <v>0.09476837235688462</v>
+        <v>0.07219226475912077</v>
       </c>
       <c r="C57">
-        <v>-0.02749668656799751</v>
+        <v>-0.04002388652031164</v>
       </c>
       <c r="D57">
-        <v>0.02047100960406786</v>
+        <v>-0.005853934341198797</v>
       </c>
       <c r="E57">
-        <v>-0.04399290259195792</v>
+        <v>-0.009840029547439053</v>
       </c>
       <c r="F57">
-        <v>0.02432604974885891</v>
+        <v>0.06138433150350374</v>
       </c>
       <c r="G57">
-        <v>0.02070643153619773</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.02240651376253765</v>
+      </c>
+      <c r="H57">
+        <v>0.02782003526851728</v>
+      </c>
+      <c r="I57">
+        <v>0.005226676517927238</v>
+      </c>
+      <c r="J57">
+        <v>-0.04345377275784605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.1793734191006961</v>
+        <v>0.2025894070862045</v>
       </c>
       <c r="C58">
-        <v>-0.01455073770111421</v>
+        <v>-0.1099242516687124</v>
       </c>
       <c r="D58">
-        <v>-0.04909006185101267</v>
+        <v>-0.06065002721697492</v>
       </c>
       <c r="E58">
-        <v>-0.1203752539104125</v>
+        <v>0.01382975623383579</v>
       </c>
       <c r="F58">
-        <v>-0.06341488227926882</v>
+        <v>0.2374524614208974</v>
       </c>
       <c r="G58">
-        <v>0.02114185949760184</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.1491396474613972</v>
+      </c>
+      <c r="H58">
+        <v>0.3731598627877798</v>
+      </c>
+      <c r="I58">
+        <v>0.05915760074628359</v>
+      </c>
+      <c r="J58">
+        <v>0.7669585597399757</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.01175423721410846</v>
+        <v>0.03953121833834188</v>
       </c>
       <c r="C59">
-        <v>0.2023871797045967</v>
+        <v>0.1808698701169575</v>
       </c>
       <c r="D59">
-        <v>0.01028753296361785</v>
+        <v>-0.0801811301058285</v>
       </c>
       <c r="E59">
-        <v>-0.05679656236288699</v>
+        <v>-0.005435728613181486</v>
       </c>
       <c r="F59">
-        <v>0.01368027157221091</v>
+        <v>0.0732072071508286</v>
       </c>
       <c r="G59">
-        <v>0.008604450661966242</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.005339747202586427</v>
+      </c>
+      <c r="H59">
+        <v>-0.02074048151659287</v>
+      </c>
+      <c r="I59">
+        <v>-0.05907559179288073</v>
+      </c>
+      <c r="J59">
+        <v>0.01162467736310084</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.1871891400165646</v>
+        <v>0.1836416540672557</v>
       </c>
       <c r="C60">
-        <v>0.1035204506784305</v>
+        <v>0.03158876636811768</v>
       </c>
       <c r="D60">
-        <v>0.007051983036419612</v>
+        <v>-0.0636037232529388</v>
       </c>
       <c r="E60">
-        <v>-0.1846859503743284</v>
+        <v>-0.01141280208311331</v>
       </c>
       <c r="F60">
-        <v>0.05950890522584136</v>
+        <v>0.2053330161875187</v>
       </c>
       <c r="G60">
-        <v>0.02671072975523139</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.08837891849336825</v>
+      </c>
+      <c r="H60">
+        <v>-0.262349423027716</v>
+      </c>
+      <c r="I60">
+        <v>0.09291366706845777</v>
+      </c>
+      <c r="J60">
+        <v>-0.009406976497572344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.05105627353060858</v>
+        <v>0.0393582197599978</v>
       </c>
       <c r="C61">
-        <v>-0.001776994295851589</v>
+        <v>-0.02370403633150624</v>
       </c>
       <c r="D61">
-        <v>-0.005987889140193533</v>
+        <v>0.007665691820765036</v>
       </c>
       <c r="E61">
-        <v>-0.03745035773506606</v>
+        <v>-0.003498307845833986</v>
       </c>
       <c r="F61">
-        <v>0.007832902031598653</v>
+        <v>0.03906921018444595</v>
       </c>
       <c r="G61">
-        <v>0.003948000636419912</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.008555325403085188</v>
+      </c>
+      <c r="H61">
+        <v>-0.0008509630918589682</v>
+      </c>
+      <c r="I61">
+        <v>0.03783823323304008</v>
+      </c>
+      <c r="J61">
+        <v>-0.02032471020356054</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2684,243 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04827444445958058</v>
+        <v>0.03214049762747279</v>
       </c>
       <c r="C63">
-        <v>0.002591900858239052</v>
+        <v>-0.01858346534489142</v>
       </c>
       <c r="D63">
-        <v>0.01493637537488946</v>
+        <v>0.004127240637643062</v>
       </c>
       <c r="E63">
-        <v>-0.03094415388205617</v>
+        <v>-0.01364567512474921</v>
       </c>
       <c r="F63">
-        <v>0.003466467496871611</v>
+        <v>0.02753335925073459</v>
       </c>
       <c r="G63">
-        <v>0.01116455966408185</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0177525586692689</v>
+      </c>
+      <c r="H63">
+        <v>0.04156345845201963</v>
+      </c>
+      <c r="I63">
+        <v>-0.02372086725093796</v>
+      </c>
+      <c r="J63">
+        <v>-0.03430178476183791</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.08390953025102495</v>
+        <v>0.05646274620611387</v>
       </c>
       <c r="C64">
-        <v>-0.0460404882824209</v>
+        <v>-0.04369656982711882</v>
       </c>
       <c r="D64">
-        <v>0.05871198017400397</v>
+        <v>0.02881671488255114</v>
       </c>
       <c r="E64">
-        <v>-0.0602977611516174</v>
+        <v>-0.03844813921242943</v>
       </c>
       <c r="F64">
-        <v>0.06197238983299853</v>
+        <v>0.05188652141283719</v>
       </c>
       <c r="G64">
-        <v>-0.0190847340189999</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.05557470314400052</v>
+      </c>
+      <c r="H64">
+        <v>-0.006419706830502508</v>
+      </c>
+      <c r="I64">
+        <v>-0.01714873824404152</v>
+      </c>
+      <c r="J64">
+        <v>-0.09832064150297691</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.01921466506903442</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>-0.007765333294791563</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>0.009436147067381098</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>-0.004264774909372129</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>-0.001324430782288268</v>
       </c>
       <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.02272104511962076</v>
+      </c>
+      <c r="H65">
+        <v>0.0003682322960006917</v>
+      </c>
+      <c r="I65">
+        <v>0.01284441654327859</v>
+      </c>
+      <c r="J65">
+        <v>-0.001462114781429674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.09478556705051334</v>
+        <v>0.06976097437800824</v>
       </c>
       <c r="C66">
-        <v>-0.02653085028616711</v>
+        <v>-0.05757204527314325</v>
       </c>
       <c r="D66">
-        <v>0.0347571438732076</v>
+        <v>0.003500228254700751</v>
       </c>
       <c r="E66">
-        <v>-0.0757458803796854</v>
+        <v>-0.04134723467519468</v>
       </c>
       <c r="F66">
-        <v>0.04533570932722243</v>
+        <v>0.07065001247510236</v>
       </c>
       <c r="G66">
-        <v>0.01890468964351081</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.0162639263529592</v>
+      </c>
+      <c r="H66">
+        <v>-0.002127260085127299</v>
+      </c>
+      <c r="I66">
+        <v>0.04970843366599401</v>
+      </c>
+      <c r="J66">
+        <v>-0.06691406430216118</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.06239936571681706</v>
+        <v>0.04645884556498726</v>
       </c>
       <c r="C67">
-        <v>0.01381352359188841</v>
+        <v>0.002577841321968032</v>
       </c>
       <c r="D67">
-        <v>0.00907833678883733</v>
+        <v>-0.002515221291441432</v>
       </c>
       <c r="E67">
-        <v>-0.03148909311882463</v>
+        <v>-0.008667831914191073</v>
       </c>
       <c r="F67">
-        <v>0.006324178417080936</v>
+        <v>0.03987605594547911</v>
       </c>
       <c r="G67">
-        <v>-0.03819441714333164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.03298793637990197</v>
+      </c>
+      <c r="H67">
+        <v>-0.008414385948099769</v>
+      </c>
+      <c r="I67">
+        <v>0.04019340875241251</v>
+      </c>
+      <c r="J67">
+        <v>-0.009233894067572824</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.01249044452966245</v>
+        <v>0.04546229750954462</v>
       </c>
       <c r="C68">
-        <v>0.2497332929991602</v>
+        <v>0.2225575209763606</v>
       </c>
       <c r="D68">
-        <v>-0.007096117975882804</v>
+        <v>-0.09075490340342064</v>
       </c>
       <c r="E68">
-        <v>-0.03815102791610633</v>
+        <v>0.007872184391662184</v>
       </c>
       <c r="F68">
-        <v>0.003358361199243766</v>
+        <v>0.05657010862725431</v>
       </c>
       <c r="G68">
-        <v>0.02154213561953826</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>0.0009278055948742085</v>
+      </c>
+      <c r="H68">
+        <v>-0.01517142571235562</v>
+      </c>
+      <c r="I68">
+        <v>-0.1740479057643506</v>
+      </c>
+      <c r="J68">
+        <v>0.0459109882361884</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.07282714048633912</v>
+        <v>0.0727536946693659</v>
       </c>
       <c r="C69">
-        <v>-0.01430943719586703</v>
+        <v>-0.02268969244973064</v>
       </c>
       <c r="D69">
-        <v>0.02072940772014409</v>
+        <v>7.020489313024907e-05</v>
       </c>
       <c r="E69">
-        <v>0.01402661970178196</v>
+        <v>-0.02902474266193219</v>
       </c>
       <c r="F69">
-        <v>-0.001221638393573081</v>
+        <v>-0.001322988189802784</v>
       </c>
       <c r="G69">
-        <v>0.02596962010644777</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>-0.02832272719997193</v>
+      </c>
+      <c r="H69">
+        <v>0.02638288129625392</v>
+      </c>
+      <c r="I69">
+        <v>0.00939459470480453</v>
+      </c>
+      <c r="J69">
+        <v>-0.02878225652908669</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2940,275 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.01228498290898173</v>
+        <v>0.05231906421488362</v>
       </c>
       <c r="C71">
-        <v>0.2737494051201263</v>
+        <v>0.2314504130938775</v>
       </c>
       <c r="D71">
-        <v>-0.008384531093014246</v>
+        <v>-0.1012965853980146</v>
       </c>
       <c r="E71">
-        <v>-0.0798855426873168</v>
+        <v>0.02620562279781572</v>
       </c>
       <c r="F71">
-        <v>0.01911353054650976</v>
+        <v>0.0827569565824455</v>
       </c>
       <c r="G71">
-        <v>0.03525998829996311</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.01472852716752878</v>
+      </c>
+      <c r="H71">
+        <v>-0.03312198061784154</v>
+      </c>
+      <c r="I71">
+        <v>-0.1251304818385602</v>
+      </c>
+      <c r="J71">
+        <v>0.01477527811161825</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1159571687671979</v>
+        <v>0.1214052161402703</v>
       </c>
       <c r="C72">
-        <v>0.004768312178541251</v>
+        <v>-0.02913179367398957</v>
       </c>
       <c r="D72">
-        <v>0.0341628420185561</v>
+        <v>0.0004042365218230126</v>
       </c>
       <c r="E72">
-        <v>-0.1012444606464214</v>
+        <v>-0.05732047519837922</v>
       </c>
       <c r="F72">
-        <v>-0.006359436346705056</v>
+        <v>0.08487408756850591</v>
       </c>
       <c r="G72">
-        <v>-0.02368125152975488</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>0.0465227196186252</v>
+      </c>
+      <c r="H72">
+        <v>-4.386906280989452e-05</v>
+      </c>
+      <c r="I72">
+        <v>0.04961270975544418</v>
+      </c>
+      <c r="J72">
+        <v>0.09050868840812765</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.28494454663429</v>
+        <v>0.2686611477435231</v>
       </c>
       <c r="C73">
-        <v>0.1691270559042005</v>
+        <v>0.05255738438460303</v>
       </c>
       <c r="D73">
-        <v>-0.05038657835771716</v>
+        <v>-0.1175516055458236</v>
       </c>
       <c r="E73">
-        <v>-0.3373700401822322</v>
+        <v>0.03113508292753741</v>
       </c>
       <c r="F73">
-        <v>0.06421034122965201</v>
+        <v>0.3116475178210905</v>
       </c>
       <c r="G73">
-        <v>0.01436279446634823</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>0.1966064829542865</v>
+      </c>
+      <c r="H73">
+        <v>-0.4558190265722382</v>
+      </c>
+      <c r="I73">
+        <v>0.311816943322708</v>
+      </c>
+      <c r="J73">
+        <v>-0.003661568332912448</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1614142271445045</v>
+        <v>0.1528320417682669</v>
       </c>
       <c r="C74">
-        <v>0.002678464687480618</v>
+        <v>-0.02809752190586646</v>
       </c>
       <c r="D74">
-        <v>0.04065385936663637</v>
+        <v>-0.007656038981769983</v>
       </c>
       <c r="E74">
-        <v>0.0174223127122419</v>
+        <v>-0.0456841204884168</v>
       </c>
       <c r="F74">
-        <v>-0.06017213105555062</v>
+        <v>-0.0542888438393456</v>
       </c>
       <c r="G74">
-        <v>0.05264657825885086</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.01914255165398052</v>
+      </c>
+      <c r="H74">
+        <v>-0.02913931965354391</v>
+      </c>
+      <c r="I74">
+        <v>-0.005240347665845919</v>
+      </c>
+      <c r="J74">
+        <v>-0.08487061594194562</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.2343679543766826</v>
+        <v>0.2450621578110272</v>
       </c>
       <c r="C75">
-        <v>0.01140133898811679</v>
+        <v>-0.02682521467499693</v>
       </c>
       <c r="D75">
-        <v>0.06843589884322857</v>
+        <v>-0.02328103314472938</v>
       </c>
       <c r="E75">
-        <v>0.124819551203085</v>
+        <v>-0.105777109185886</v>
       </c>
       <c r="F75">
-        <v>-0.04909944500385637</v>
+        <v>-0.1450754801115593</v>
       </c>
       <c r="G75">
-        <v>0.04453521714662868</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>-0.004049636420098802</v>
+      </c>
+      <c r="H75">
+        <v>-0.02399678446413735</v>
+      </c>
+      <c r="I75">
+        <v>-0.08710329618083205</v>
+      </c>
+      <c r="J75">
+        <v>-0.03026187450842114</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.2468353968089177</v>
+        <v>0.2683416423323757</v>
       </c>
       <c r="C76">
-        <v>0.01217269380279866</v>
+        <v>-0.01490333411779011</v>
       </c>
       <c r="D76">
-        <v>0.1051597694999537</v>
+        <v>0.01212344205162183</v>
       </c>
       <c r="E76">
-        <v>0.1239172360596115</v>
+        <v>-0.1299190890731738</v>
       </c>
       <c r="F76">
-        <v>-0.08146286055947895</v>
+        <v>-0.1789104060906947</v>
       </c>
       <c r="G76">
-        <v>0.04136563772918097</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.05000799470456436</v>
+      </c>
+      <c r="H76">
+        <v>-0.0442368466606795</v>
+      </c>
+      <c r="I76">
+        <v>-0.02058742179400262</v>
+      </c>
+      <c r="J76">
+        <v>-0.06773441952530042</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.1340215367595389</v>
+        <v>0.1298092346434801</v>
       </c>
       <c r="C77">
-        <v>-0.02447923181788276</v>
+        <v>-0.06766177189352104</v>
       </c>
       <c r="D77">
-        <v>-0.04898325906872854</v>
+        <v>0.01125356146817802</v>
       </c>
       <c r="E77">
-        <v>-0.1471157014434309</v>
+        <v>0.04416845695446555</v>
       </c>
       <c r="F77">
-        <v>0.007798693448207686</v>
+        <v>0.1617715985307357</v>
       </c>
       <c r="G77">
-        <v>-0.0665830126408489</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.01031370174933692</v>
+      </c>
+      <c r="H77">
+        <v>0.2008952300177408</v>
+      </c>
+      <c r="I77">
+        <v>-0.179014239205728</v>
+      </c>
+      <c r="J77">
+        <v>-0.1160643807992305</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.08671761283335662</v>
+        <v>0.08088864099440143</v>
       </c>
       <c r="C78">
-        <v>-0.0412026893589585</v>
+        <v>-0.07124339534053518</v>
       </c>
       <c r="D78">
-        <v>-0.02087961468418213</v>
+        <v>0.02786735123827767</v>
       </c>
       <c r="E78">
-        <v>-0.04952028488822505</v>
+        <v>-0.001534534012848373</v>
       </c>
       <c r="F78">
-        <v>0.01130145788161521</v>
+        <v>0.07286326249670819</v>
       </c>
       <c r="G78">
-        <v>0.013533030145905</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.009569760954394262</v>
+      </c>
+      <c r="H78">
+        <v>0.02760970675088324</v>
+      </c>
+      <c r="I78">
+        <v>-0.02262460355136045</v>
+      </c>
+      <c r="J78">
+        <v>-0.0467439436455435</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +3228,83 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.06447607486753064</v>
+        <v>0.1502159825996237</v>
       </c>
       <c r="C80">
-        <v>-0.02513395620353388</v>
+        <v>0.3489230713156118</v>
       </c>
       <c r="D80">
-        <v>-0.02147380965937179</v>
+        <v>0.9081632773670135</v>
       </c>
       <c r="E80">
-        <v>0.008489500528870307</v>
+        <v>0.06100115774903604</v>
       </c>
       <c r="F80">
-        <v>-0.1334127798950604</v>
+        <v>0.04593439464805851</v>
       </c>
       <c r="G80">
-        <v>-0.9338176427220137</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.04236857363464303</v>
+      </c>
+      <c r="H80">
+        <v>-0.05562078328681275</v>
+      </c>
+      <c r="I80">
+        <v>0.02203684121217882</v>
+      </c>
+      <c r="J80">
+        <v>0.1019763479534245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1632728500726124</v>
+        <v>0.1801608898160622</v>
       </c>
       <c r="C81">
-        <v>0.01044031241784477</v>
+        <v>-0.006370406784864802</v>
       </c>
       <c r="D81">
-        <v>0.06196824551747514</v>
+        <v>-0.006475205592574896</v>
       </c>
       <c r="E81">
-        <v>0.1532183980274385</v>
+        <v>-0.08572641844603412</v>
       </c>
       <c r="F81">
-        <v>-0.1119158449662361</v>
+        <v>-0.1628027609039063</v>
       </c>
       <c r="G81">
-        <v>0.0323578556081365</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.03055553625402977</v>
+      </c>
+      <c r="H81">
+        <v>-0.0108198143218084</v>
+      </c>
+      <c r="I81">
+        <v>-0.05375567293887771</v>
+      </c>
+      <c r="J81">
+        <v>-0.0106126552937857</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +3324,51 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.09342070357820399</v>
+        <v>0.06950618243600803</v>
       </c>
       <c r="C83">
-        <v>-0.04432286796029623</v>
+        <v>-0.04941951505395641</v>
       </c>
       <c r="D83">
-        <v>-0.07991430450535768</v>
+        <v>0.000356975578995292</v>
       </c>
       <c r="E83">
-        <v>-0.005887883178902103</v>
+        <v>0.04082062683601149</v>
       </c>
       <c r="F83">
-        <v>0.05713135632934856</v>
+        <v>0.04432710611905709</v>
       </c>
       <c r="G83">
-        <v>0.01287250920343031</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.05934163840335599</v>
+      </c>
+      <c r="H83">
+        <v>0.01696372667996559</v>
+      </c>
+      <c r="I83">
+        <v>-0.01673136001234875</v>
+      </c>
+      <c r="J83">
+        <v>-0.07923181301891843</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +3388,371 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.2328802406047485</v>
+        <v>0.2517468359756835</v>
       </c>
       <c r="C85">
-        <v>-0.04966430898489641</v>
+        <v>-0.05108911352700048</v>
       </c>
       <c r="D85">
-        <v>0.06424614089964617</v>
+        <v>0.008405172432086416</v>
       </c>
       <c r="E85">
-        <v>0.1504340862165784</v>
+        <v>-0.08919851215376551</v>
       </c>
       <c r="F85">
-        <v>-0.07409143271258375</v>
+        <v>-0.1834228446044819</v>
       </c>
       <c r="G85">
-        <v>0.01693460286578497</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.009694401822715961</v>
+      </c>
+      <c r="H85">
+        <v>0.01788905799753188</v>
+      </c>
+      <c r="I85">
+        <v>-0.05302760090971111</v>
+      </c>
+      <c r="J85">
+        <v>-0.08252070251487136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.04528795263537765</v>
+        <v>0.02703669631700249</v>
       </c>
       <c r="C86">
-        <v>-0.04940315319505896</v>
+        <v>-0.06302053758292865</v>
       </c>
       <c r="D86">
-        <v>0.0119589856692066</v>
+        <v>0.02180004473179098</v>
       </c>
       <c r="E86">
-        <v>-0.06220609747844378</v>
+        <v>-0.008579662126533117</v>
       </c>
       <c r="F86">
-        <v>0.0002658496669740882</v>
+        <v>0.06818991452089788</v>
       </c>
       <c r="G86">
-        <v>0.02761971621177299</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.005014265748460981</v>
+      </c>
+      <c r="H86">
+        <v>0.06375595236022093</v>
+      </c>
+      <c r="I86">
+        <v>-0.02533594588014396</v>
+      </c>
+      <c r="J86">
+        <v>-0.04208480912160627</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.02476214069930157</v>
+        <v>0.03494066688439643</v>
       </c>
       <c r="C87">
-        <v>0.05278507227091655</v>
+        <v>0.01113907409757677</v>
       </c>
       <c r="D87">
-        <v>0.005692674116488865</v>
+        <v>-0.008341044073490895</v>
       </c>
       <c r="E87">
-        <v>-0.09215940914578886</v>
+        <v>-0.002735150523084734</v>
       </c>
       <c r="F87">
-        <v>-0.01681366952409682</v>
+        <v>0.1007371497907271</v>
       </c>
       <c r="G87">
-        <v>0.03218150228621031</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>0.02275677189546313</v>
+      </c>
+      <c r="H87">
+        <v>0.01916147088792684</v>
+      </c>
+      <c r="I87">
+        <v>0.01943636265254529</v>
+      </c>
+      <c r="J87">
+        <v>-0.01231547200864016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.04017132393907166</v>
+        <v>0.0282724473362383</v>
       </c>
       <c r="C88">
-        <v>-0.03414906745336122</v>
+        <v>-0.01699077657690701</v>
       </c>
       <c r="D88">
-        <v>0.008848095258249923</v>
+        <v>0.01815735214372299</v>
       </c>
       <c r="E88">
-        <v>0.01120844427916162</v>
+        <v>-0.01560985994045959</v>
       </c>
       <c r="F88">
-        <v>-0.01285491920991644</v>
+        <v>-0.01259150966517764</v>
       </c>
       <c r="G88">
-        <v>0.005826793607464719</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>-0.03890417698814896</v>
+      </c>
+      <c r="H88">
+        <v>0.03750969844002962</v>
+      </c>
+      <c r="I88">
+        <v>0.02761357418931957</v>
+      </c>
+      <c r="J88">
+        <v>-0.03015430717349538</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>-0.004365748810044152</v>
+        <v>0.06736769287308796</v>
       </c>
       <c r="C89">
-        <v>0.4176885328797228</v>
+        <v>0.3590998324527016</v>
       </c>
       <c r="D89">
-        <v>-0.09108687101134011</v>
+        <v>-0.1646201255914858</v>
       </c>
       <c r="E89">
-        <v>0.01235293638466729</v>
+        <v>0.04350796123996937</v>
       </c>
       <c r="F89">
-        <v>0.008598349183458415</v>
+        <v>0.04174250364372339</v>
       </c>
       <c r="G89">
-        <v>0.02636184733829258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.04763544489590418</v>
+      </c>
+      <c r="H89">
+        <v>0.03705668301950026</v>
+      </c>
+      <c r="I89">
+        <v>-0.268433897229751</v>
+      </c>
+      <c r="J89">
+        <v>0.04556370677046011</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>-0.000303176828588709</v>
+        <v>0.04694616738842987</v>
       </c>
       <c r="C90">
-        <v>0.3099629402774394</v>
+        <v>0.3128164263113397</v>
       </c>
       <c r="D90">
-        <v>-0.02641253681299556</v>
+        <v>-0.1253452075553111</v>
       </c>
       <c r="E90">
-        <v>-0.04231587633668295</v>
+        <v>0.03161839006153204</v>
       </c>
       <c r="F90">
-        <v>0.01778969357112583</v>
+        <v>0.03695787843271516</v>
       </c>
       <c r="G90">
-        <v>0.04090295630059639</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>-0.02628545239086815</v>
+      </c>
+      <c r="H90">
+        <v>0.002002706564975825</v>
+      </c>
+      <c r="I90">
+        <v>-0.2288624838891902</v>
+      </c>
+      <c r="J90">
+        <v>0.01435567426310807</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.2837023562135531</v>
+        <v>0.3001830358663814</v>
       </c>
       <c r="C91">
-        <v>-0.02377005944088982</v>
+        <v>-0.03913095561145855</v>
       </c>
       <c r="D91">
-        <v>0.07220116458409805</v>
+        <v>-0.008261374534562287</v>
       </c>
       <c r="E91">
-        <v>0.2807192909498581</v>
+        <v>-0.09054007169722898</v>
       </c>
       <c r="F91">
-        <v>-0.1300570491295911</v>
+        <v>-0.2913418906201836</v>
       </c>
       <c r="G91">
-        <v>-0.03083510909202826</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.0300948018374124</v>
+      </c>
+      <c r="H91">
+        <v>-0.01079006844990597</v>
+      </c>
+      <c r="I91">
+        <v>-0.1199171052949813</v>
+      </c>
+      <c r="J91">
+        <v>-0.076958418426419</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.006594194030192867</v>
+        <v>0.1031289531657922</v>
       </c>
       <c r="C92">
-        <v>0.4270552965223715</v>
+        <v>0.4173265315057547</v>
       </c>
       <c r="D92">
-        <v>-0.1896830757872456</v>
+        <v>-0.1426565509461458</v>
       </c>
       <c r="E92">
-        <v>0.1346870780936493</v>
+        <v>0.06579445698230205</v>
       </c>
       <c r="F92">
-        <v>-0.07291040133605615</v>
+        <v>-0.112807161581757</v>
       </c>
       <c r="G92">
-        <v>-0.1629543962340964</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.1028403705100821</v>
+      </c>
+      <c r="H92">
+        <v>0.4512895452276378</v>
+      </c>
+      <c r="I92">
+        <v>0.6939367723517107</v>
+      </c>
+      <c r="J92">
+        <v>-0.2268964913324212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>-0.01190753565400241</v>
+        <v>0.05236408777076587</v>
       </c>
       <c r="C93">
-        <v>0.3721525493110872</v>
+        <v>0.3747967244389229</v>
       </c>
       <c r="D93">
-        <v>-0.06579968481711652</v>
+        <v>-0.1649144436097336</v>
       </c>
       <c r="E93">
-        <v>0.02743326043334341</v>
+        <v>0.06017789218766859</v>
       </c>
       <c r="F93">
-        <v>-0.009379287303147835</v>
+        <v>0.006904631171576342</v>
       </c>
       <c r="G93">
-        <v>-0.03872080953228212</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>-0.03590206175522603</v>
+      </c>
+      <c r="H93">
+        <v>-0.02836587511643463</v>
+      </c>
+      <c r="I93">
+        <v>-0.1765045403331826</v>
+      </c>
+      <c r="J93">
+        <v>0.04631058607565611</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.2742097050603854</v>
+        <v>0.3043192539889346</v>
       </c>
       <c r="C94">
-        <v>0.0661532885799215</v>
+        <v>0.001566207540209772</v>
       </c>
       <c r="D94">
-        <v>0.0329140679365629</v>
+        <v>-0.04757626278834584</v>
       </c>
       <c r="E94">
-        <v>0.3404391813585106</v>
+        <v>-0.1335682695895479</v>
       </c>
       <c r="F94">
-        <v>-0.4201630733660848</v>
+        <v>-0.3368076950046147</v>
       </c>
       <c r="G94">
-        <v>0.1216345266881427</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.1972871361548364</v>
+      </c>
+      <c r="H94">
+        <v>0.1520372951623537</v>
+      </c>
+      <c r="I94">
+        <v>-0.02559303868098591</v>
+      </c>
+      <c r="J94">
+        <v>0.1701687299140676</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.201634152759909</v>
+        <v>0.1316819470619592</v>
       </c>
       <c r="C95">
-        <v>0.02541046764475819</v>
+        <v>-0.07742480622645595</v>
       </c>
       <c r="D95">
-        <v>0.00599087053743851</v>
+        <v>-0.07649309802480657</v>
       </c>
       <c r="E95">
-        <v>0.4248780606624573</v>
+        <v>-0.0302948306296955</v>
       </c>
       <c r="F95">
-        <v>0.8208235146557055</v>
+        <v>-0.07327322616603403</v>
       </c>
       <c r="G95">
-        <v>-0.09900279621415943</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.8892577059081987</v>
+      </c>
+      <c r="H95">
+        <v>-0.2020739816833893</v>
+      </c>
+      <c r="I95">
+        <v>0.08823227467835756</v>
+      </c>
+      <c r="J95">
+        <v>0.2666577442287023</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3772,19 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3804,51 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.2221455159709288</v>
+        <v>0.2095884310433309</v>
       </c>
       <c r="C98">
-        <v>0.1202166929016295</v>
+        <v>0.03890696916510696</v>
       </c>
       <c r="D98">
-        <v>-0.05199249128496232</v>
+        <v>-0.08351693709583143</v>
       </c>
       <c r="E98">
-        <v>-0.08932295245294121</v>
+        <v>0.02814393249691152</v>
       </c>
       <c r="F98">
-        <v>0.05728599469827094</v>
+        <v>0.1592532784881746</v>
       </c>
       <c r="G98">
-        <v>0.06465677607054311</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>0.09413505180772144</v>
+      </c>
+      <c r="H98">
+        <v>-0.319758777715894</v>
+      </c>
+      <c r="I98">
+        <v>0.1662859683257529</v>
+      </c>
+      <c r="J98">
+        <v>0.0516704634414195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3868,19 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,79 +3900,115 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.02373533030568179</v>
+        <v>0.01557630376776195</v>
       </c>
       <c r="C101">
-        <v>-0.01739322199172194</v>
+        <v>-0.02911766281323881</v>
       </c>
       <c r="D101">
-        <v>0.02756533721259064</v>
+        <v>0.01580876429824179</v>
       </c>
       <c r="E101">
-        <v>-0.02360044718326284</v>
+        <v>-0.03096593577711423</v>
       </c>
       <c r="F101">
-        <v>0.01423154690644845</v>
+        <v>0.06638794191346135</v>
       </c>
       <c r="G101">
-        <v>0.01774020992357683</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.02170774114495675</v>
+      </c>
+      <c r="H101">
+        <v>0.1090764338068053</v>
+      </c>
+      <c r="I101">
+        <v>0.03736678778106977</v>
+      </c>
+      <c r="J101">
+        <v>0.1165992236920446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B102">
-        <v>0.1194409755365777</v>
+        <v>0.1206453278482524</v>
       </c>
       <c r="C102">
-        <v>-0.01397903986825561</v>
+        <v>-0.02254223300394371</v>
       </c>
       <c r="D102">
-        <v>0.04125734037220408</v>
+        <v>0.008637136544199359</v>
       </c>
       <c r="E102">
-        <v>0.08533423129395022</v>
+        <v>-0.05268891755271447</v>
       </c>
       <c r="F102">
-        <v>-0.007911697634683407</v>
+        <v>-0.09721829583527763</v>
       </c>
       <c r="G102">
-        <v>-0.008304626305750228</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>-0.01912327710194942</v>
+      </c>
+      <c r="H102">
+        <v>-0.02191946946964312</v>
+      </c>
+      <c r="I102">
+        <v>-0.04468586230471677</v>
+      </c>
+      <c r="J102">
+        <v>-0.04078007822456414</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B103">
-        <v>0.01999138966179808</v>
+        <v>0.03256432300251638</v>
       </c>
       <c r="C103">
-        <v>-0.0002714013255856113</v>
+        <v>-0.005001901407118547</v>
       </c>
       <c r="D103">
-        <v>0.01371704530255478</v>
+        <v>0.01008777631320614</v>
       </c>
       <c r="E103">
-        <v>0.03276442384557802</v>
+        <v>-0.02130746793586912</v>
       </c>
       <c r="F103">
-        <v>-0.01882738330779787</v>
+        <v>-0.02826796227191372</v>
       </c>
       <c r="G103">
-        <v>0.01385048999440061</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.01340240749442788</v>
+      </c>
+      <c r="H103">
+        <v>0.0144628156513783</v>
+      </c>
+      <c r="I103">
+        <v>-0.03047882735033311</v>
+      </c>
+      <c r="J103">
+        <v>-0.01165404221044211</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3090,6 +4026,15 @@
         <v>0</v>
       </c>
       <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
